--- a/doc/凯泰-扭矩仪参数字典20231110.xlsx
+++ b/doc/凯泰-扭矩仪参数字典20231110.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shenggen\torque\Drill\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CurWork\gitlib\Drill\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1D7E5C-19EF-4351-B423-9D630991AE5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22088560-BE19-46EF-A5C7-262B912D4E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4A2E4BC5-18DD-41C3-9C98-E226247E2C40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{4A2E4BC5-18DD-41C3-9C98-E226247E2C40}"/>
   </bookViews>
   <sheets>
     <sheet name="（74）凯泰-套管扭矩 " sheetId="1" r:id="rId1"/>
@@ -275,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -364,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -383,23 +383,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -415,7 +407,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -713,646 +705,646 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17E7EB2-595E-402F-83D5-AD76779B1F92}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="9" style="15"/>
-    <col min="4" max="5" width="9" style="14"/>
-    <col min="6" max="7" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9" style="14"/>
-    <col min="10" max="10" width="12.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="5" width="9" style="1"/>
+    <col min="6" max="7" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+    <row r="2" spans="1:7">
+      <c r="A2" s="6">
         <v>8001</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6">
         <v>8002</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
         <v>8003</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="10" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
         <v>8011</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
         <v>8012</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
         <v>8013</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
         <v>8014</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
         <v>8015</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
         <v>8016</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
         <v>8017</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
         <v>8018</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
         <v>8019</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
         <v>8020</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>0</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>1000</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
         <v>8021</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="C16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
         <v>8022</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>80</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
         <v>8023</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="10" t="s">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="10">
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
         <v>8024</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>200000</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="F19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
         <v>8025</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>0</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <v>200000</v>
       </c>
-      <c r="F20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
         <v>8026</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>200000</v>
       </c>
-      <c r="F21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
         <v>8027</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="7">
         <v>0</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="7">
         <v>100</v>
       </c>
-      <c r="F22" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
         <v>8028</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="7">
         <v>0</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="7">
         <v>3600</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="10" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
         <v>8031</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
         <v>8032</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
         <v>8033</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
         <v>8034</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6">
         <v>8035</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
         <v>8036</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6">
         <v>8037</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6">
         <v>8038</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
         <v>8039</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6">
         <v>8040</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J34" s="14" t="s">
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="10" customHeight="1">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="8">
         <v>8050</v>
       </c>
@@ -1366,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E36" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>9</v>
@@ -1374,123 +1366,123 @@
       <c r="G36" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="12">
         <v>80505</v>
       </c>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="10">
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="6">
         <v>8051</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="7">
         <v>0</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="7">
         <v>20000</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="16">
+      <c r="F37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="12">
         <v>80515000</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="12">
         <v>80515100</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="12">
         <v>80515300</v>
       </c>
-      <c r="M37" s="16">
+      <c r="M37" s="12">
         <v>80515400</v>
       </c>
-      <c r="N37" s="16">
+      <c r="N37" s="12">
         <v>80515600</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="10">
+    <row r="38" spans="1:14">
+      <c r="A38" s="6">
         <v>8052</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="16">
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="12">
         <v>80522.58</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="12">
         <v>80522.600000000006</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="12">
         <v>80522.63</v>
       </c>
-      <c r="M38" s="16">
+      <c r="M38" s="12">
         <v>80522.649999999994</v>
       </c>
-      <c r="N38" s="16">
+      <c r="N38" s="12">
         <v>80522.679999999993</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+    <row r="39" spans="1:14">
+      <c r="A39" s="6">
         <v>8053</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="7">
         <v>0</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="7">
         <v>3600</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="16">
+      <c r="F39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="12">
         <v>80533.119999999995</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="12">
         <v>80533.22</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L39" s="12">
         <v>80533.320000000007</v>
       </c>
-      <c r="M39" s="16">
+      <c r="M39" s="12">
         <v>80533.42</v>
       </c>
-      <c r="N39" s="16">
+      <c r="N39" s="12">
         <v>80533.52</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14">
       <c r="A41" s="8">
         <v>8061</v>
       </c>
@@ -1510,15 +1502,15 @@
       <c r="G41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="17" t="s">
+      <c r="H41" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16">
+      <c r="I41" s="12"/>
+      <c r="J41" s="12">
         <v>80610</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14">
       <c r="A42" s="8">
         <v>8062</v>
       </c>
@@ -1540,13 +1532,13 @@
       <c r="G42" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16">
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12">
         <v>806215000</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14">
       <c r="A43" s="8">
         <v>8063</v>
       </c>
@@ -1568,9 +1560,9 @@
       <c r="G43" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16">
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12">
         <v>80637000</v>
       </c>
     </row>
@@ -1590,25 +1582,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A1E8D5-8DB4-45AD-A5D0-F1292541C88D}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="5" width="9" style="1"/>
-    <col min="6" max="7" width="10.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
@@ -1632,7 +1624,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="6">
         <v>8001</v>
       </c>
@@ -1649,7 +1641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="6">
         <v>8002</v>
       </c>
@@ -1666,487 +1658,478 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
         <v>8003</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="10" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
         <v>8011</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="10" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
         <v>8012</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
         <v>8013</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="10" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
         <v>8014</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="10" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
         <v>8015</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
         <v>8016</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
         <v>8017</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
         <v>8019</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
         <v>8020</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <v>1000</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10">
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
         <v>8021</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="10" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="10">
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
         <v>8022</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <v>80</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+    <row r="17" spans="1:13">
+      <c r="A17" s="6">
         <v>8023</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
+    <row r="18" spans="1:13">
+      <c r="A18" s="6">
         <v>8024</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="7">
         <v>0</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <v>200000</v>
       </c>
-      <c r="F18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="10">
+      <c r="F18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="10" customHeight="1">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="6">
         <v>8036</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="10">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="10" customHeight="1">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="6">
         <v>8041</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="6">
         <v>8042</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="6">
         <v>8043</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="10">
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="6">
         <v>8044</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="6">
         <v>8045</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="10">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="6">
         <v>8046</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="10">
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="6">
         <v>8047</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="6">
         <v>8048</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="10">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="6">
         <v>8049</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="7">
         <v>0</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="7">
         <v>15000</v>
       </c>
-      <c r="F30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I30" s="14" t="s">
+      <c r="F30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-    </row>
-    <row r="31" spans="1:13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:13" ht="10" customHeight="1">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="8">
         <v>8050</v>
       </c>
@@ -2160,7 +2143,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="9">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>9</v>
@@ -2168,132 +2151,132 @@
       <c r="G32" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="16">
+      <c r="I32" s="12">
         <v>80505</v>
       </c>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="10">
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="6">
         <v>8051</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="7">
         <v>0</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="7">
         <v>200000</v>
       </c>
-      <c r="F33" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="16">
+      <c r="F33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" s="12">
         <v>80515000</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="12">
         <v>80515100</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="12">
         <v>80515300</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="12">
         <v>80515400</v>
       </c>
-      <c r="M33" s="16">
+      <c r="M33" s="12">
         <v>80515600</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="10">
+    <row r="34" spans="1:13">
+      <c r="A34" s="6">
         <v>8052</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="16">
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="12">
         <v>80522.58</v>
       </c>
-      <c r="J34" s="16">
+      <c r="J34" s="12">
         <v>80522.600000000006</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="12">
         <v>80522.63</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="12">
         <v>80522.649999999994</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="12">
         <v>80522.679999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+    <row r="35" spans="1:13">
+      <c r="A35" s="6">
         <v>8053</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="7">
         <v>0</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="7">
         <v>3600</v>
       </c>
-      <c r="F35" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="16">
+      <c r="F35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" s="12">
         <v>80533.119999999995</v>
       </c>
-      <c r="J35" s="16">
+      <c r="J35" s="12">
         <v>80533.22</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="12">
         <v>80533.320000000007</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="12">
         <v>80533.42</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M35" s="12">
         <v>80533.52</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="8">
         <v>8061</v>
       </c>
@@ -2313,15 +2296,15 @@
       <c r="G37" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="17" t="s">
+      <c r="H37" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16">
+      <c r="I37" s="12"/>
+      <c r="J37" s="12">
         <v>80610</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38" s="8">
         <v>8062</v>
       </c>
@@ -2343,13 +2326,13 @@
       <c r="G38" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16">
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12">
         <v>806215000</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39" s="8">
         <v>8063</v>
       </c>
@@ -2371,9 +2354,9 @@
       <c r="G39" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16">
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12">
         <v>80637000</v>
       </c>
     </row>

--- a/doc/凯泰-扭矩仪参数字典20231110.xlsx
+++ b/doc/凯泰-扭矩仪参数字典20231110.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CurWork\gitlib\Drill\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22088560-BE19-46EF-A5C7-262B912D4E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC34436-ABAA-4C47-B7B9-7DDA5F6E7BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{4A2E4BC5-18DD-41C3-9C98-E226247E2C40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4A2E4BC5-18DD-41C3-9C98-E226247E2C40}"/>
   </bookViews>
   <sheets>
     <sheet name="（74）凯泰-套管扭矩 " sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="64">
   <si>
     <t>中文名称</t>
   </si>
@@ -253,9 +253,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>数据数量</t>
-  </si>
-  <si>
     <t>扭矩标识</t>
   </si>
   <si>
@@ -266,9 +263,6 @@
   </si>
   <si>
     <t>0-上扣，1-卸扣</t>
-  </si>
-  <si>
-    <t>示例</t>
   </si>
 </sst>
 </file>
@@ -703,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A17E7EB2-595E-402F-83D5-AD76779B1F92}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1298,7 +1292,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:10">
       <c r="A33" s="6">
         <v>8039</v>
       </c>
@@ -1315,7 +1309,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:10">
       <c r="A34" s="6">
         <v>8040</v>
       </c>
@@ -1331,11 +1325,8 @@
       <c r="G34" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="10" customHeight="1">
+    </row>
+    <row r="35" spans="1:10" ht="10" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="6"/>
@@ -1344,157 +1335,112 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="8">
-        <v>8050</v>
-      </c>
-      <c r="B36" s="9" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="6">
+        <v>8051</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="7">
+        <v>20000</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="6">
+        <v>8052</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="6">
+        <v>8053</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="7">
+        <v>3600</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="8">
+        <v>8061</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="8">
-        <v>5</v>
-      </c>
-      <c r="D36" s="9">
+      <c r="C40" s="8"/>
+      <c r="D40" s="9">
+        <v>0</v>
+      </c>
+      <c r="E40" s="9">
         <v>1</v>
       </c>
-      <c r="E36" s="9">
-        <v>100</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J36" s="12">
-        <v>80505</v>
-      </c>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="6">
-        <v>8051</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7">
-        <v>20000</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J37" s="12">
-        <v>80515000</v>
-      </c>
-      <c r="K37" s="12">
-        <v>80515100</v>
-      </c>
-      <c r="L37" s="12">
-        <v>80515300</v>
-      </c>
-      <c r="M37" s="12">
-        <v>80515400</v>
-      </c>
-      <c r="N37" s="12">
-        <v>80515600</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="6">
-        <v>8052</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J38" s="12">
-        <v>80522.58</v>
-      </c>
-      <c r="K38" s="12">
-        <v>80522.600000000006</v>
-      </c>
-      <c r="L38" s="12">
-        <v>80522.63</v>
-      </c>
-      <c r="M38" s="12">
-        <v>80522.649999999994</v>
-      </c>
-      <c r="N38" s="12">
-        <v>80522.679999999993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="6">
-        <v>8053</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J39" s="12">
-        <v>80533.119999999995</v>
-      </c>
-      <c r="K39" s="12">
-        <v>80533.22</v>
-      </c>
-      <c r="L39" s="12">
-        <v>80533.320000000007</v>
-      </c>
-      <c r="M39" s="12">
-        <v>80533.42</v>
-      </c>
-      <c r="N39" s="12">
-        <v>80533.52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="F40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12">
+        <v>80610</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="8">
-        <v>8061</v>
+        <v>8062</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D41" s="9">
         <v>0</v>
       </c>
       <c r="E41" s="9">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F41" s="8" t="s">
         <v>9</v>
@@ -1502,17 +1448,15 @@
       <c r="G41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="H41" s="12"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12">
-        <v>80610</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>806215000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="8">
-        <v>8062</v>
+        <v>8063</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>62</v>
@@ -1535,41 +1479,13 @@
       <c r="H42" s="12"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12">
-        <v>806215000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="8">
-        <v>8063</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="9">
-        <v>0</v>
-      </c>
-      <c r="E43" s="9">
-        <v>20000</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12">
         <v>80637000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G39 G41:G43" xr:uid="{12EDE501-CFA2-4BCB-8097-A840EC321E5E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G40:G42 G2:G38" xr:uid="{12EDE501-CFA2-4BCB-8097-A840EC321E5E}">
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1580,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A1E8D5-8DB4-45AD-A5D0-F1292541C88D}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1883,7 +1799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:7">
       <c r="A17" s="6">
         <v>8023</v>
       </c>
@@ -1900,7 +1816,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:7">
       <c r="A18" s="6">
         <v>8024</v>
       </c>
@@ -1923,7 +1839,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="10" customHeight="1">
+    <row r="19" spans="1:7" ht="10" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="6"/>
@@ -1932,7 +1848,7 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:7">
       <c r="A20" s="6">
         <v>8036</v>
       </c>
@@ -1949,7 +1865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="10" customHeight="1">
+    <row r="21" spans="1:7" ht="10" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="6"/>
@@ -1958,7 +1874,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:7">
       <c r="A22" s="6">
         <v>8041</v>
       </c>
@@ -1975,7 +1891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:7">
       <c r="A23" s="6">
         <v>8042</v>
       </c>
@@ -1992,7 +1908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:7">
       <c r="A24" s="6">
         <v>8043</v>
       </c>
@@ -2009,7 +1925,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:7">
       <c r="A25" s="6">
         <v>8044</v>
       </c>
@@ -2026,7 +1942,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:7">
       <c r="A26" s="6">
         <v>8045</v>
       </c>
@@ -2043,7 +1959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:7">
       <c r="A27" s="6">
         <v>8046</v>
       </c>
@@ -2060,7 +1976,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:7">
       <c r="A28" s="6">
         <v>8047</v>
       </c>
@@ -2077,7 +1993,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:7">
       <c r="A29" s="6">
         <v>8048</v>
       </c>
@@ -2094,7 +2010,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:7">
       <c r="A30" s="6">
         <v>8049</v>
       </c>
@@ -2116,11 +2032,8 @@
       <c r="G30" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="10" customHeight="1">
+    </row>
+    <row r="31" spans="1:7" ht="10" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
@@ -2129,166 +2042,121 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="8">
-        <v>8050</v>
-      </c>
-      <c r="B32" s="9" t="s">
+    <row r="32" spans="1:7">
+      <c r="A32" s="6">
+        <v>8051</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7">
+        <v>200000</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="6">
+        <v>8052</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="6">
+        <v>8053</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="7">
+        <v>3600</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="8">
+        <v>8061</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="8">
-        <v>5</v>
-      </c>
-      <c r="D32" s="9">
+      <c r="C36" s="8"/>
+      <c r="D36" s="9">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9">
         <v>1</v>
       </c>
-      <c r="E32" s="9">
-        <v>100</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I32" s="12">
-        <v>80505</v>
-      </c>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="6">
-        <v>8051</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
-        <v>200000</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I33" s="12">
-        <v>80515000</v>
-      </c>
-      <c r="J33" s="12">
-        <v>80515100</v>
-      </c>
-      <c r="K33" s="12">
-        <v>80515300</v>
-      </c>
-      <c r="L33" s="12">
-        <v>80515400</v>
-      </c>
-      <c r="M33" s="12">
-        <v>80515600</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" s="6">
-        <v>8052</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I34" s="12">
-        <v>80522.58</v>
-      </c>
-      <c r="J34" s="12">
-        <v>80522.600000000006</v>
-      </c>
-      <c r="K34" s="12">
-        <v>80522.63</v>
-      </c>
-      <c r="L34" s="12">
-        <v>80522.649999999994</v>
-      </c>
-      <c r="M34" s="12">
-        <v>80522.679999999993</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="6">
-        <v>8053</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7">
-        <v>3600</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" s="12">
-        <v>80533.119999999995</v>
-      </c>
-      <c r="J35" s="12">
-        <v>80533.22</v>
-      </c>
-      <c r="K35" s="12">
-        <v>80533.320000000007</v>
-      </c>
-      <c r="L35" s="12">
-        <v>80533.42</v>
-      </c>
-      <c r="M35" s="12">
-        <v>80533.52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="F36" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12">
+        <v>80610</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="8">
-        <v>8061</v>
+        <v>8062</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C37" s="8"/>
+      <c r="C37" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="D37" s="9">
         <v>0</v>
       </c>
       <c r="E37" s="9">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>9</v>
@@ -2296,17 +2164,15 @@
       <c r="G37" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="H37" s="12"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12">
-        <v>80610</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>806215000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="8">
-        <v>8062</v>
+        <v>8063</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>62</v>
@@ -2329,41 +2195,13 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12">
-        <v>806215000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="8">
-        <v>8063</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="9">
-        <v>0</v>
-      </c>
-      <c r="E39" s="9">
-        <v>20000</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12">
         <v>80637000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G41" xr:uid="{3ECFF1C2-A813-4C4F-A6A1-618E1D686E99}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G40" xr:uid="{3ECFF1C2-A813-4C4F-A6A1-618E1D686E99}">
       <formula1>"√,×"</formula1>
     </dataValidation>
   </dataValidations>
